--- a/Combined results LCOH Try 5 .xlsx
+++ b/Combined results LCOH Try 5 .xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1672D398-A97A-4A10-9C7A-D20E74530FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC458D-5727-4332-B24E-8875B43CD198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9F3F09AA-E5FD-479C-98DA-6F8E9920F12F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{9F3F09AA-E5FD-479C-98DA-6F8E9920F12F}"/>
   </bookViews>
   <sheets>
     <sheet name="LCOH" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="5" r:id="rId2"/>
-    <sheet name="SWOT" sheetId="4" r:id="rId3"/>
-    <sheet name="Framework" sheetId="6" r:id="rId4"/>
-    <sheet name="NPV" sheetId="3" r:id="rId5"/>
+    <sheet name="LCOH (Access)" sheetId="7" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="5" r:id="rId3"/>
+    <sheet name="SWOT" sheetId="4" r:id="rId4"/>
+    <sheet name="Framework" sheetId="6" r:id="rId5"/>
+    <sheet name="NPV" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,8 +58,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>j=1</t>
   </si>
@@ -229,13 +252,79 @@
     <t>EoI</t>
   </si>
   <si>
-    <t>5–7</t>
-  </si>
-  <si>
     <t>RPN</t>
   </si>
   <si>
     <t>Criterion</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Final demand</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>share of hydrogen demand of the EU</t>
+  </si>
+  <si>
+    <t>Demand [TWh]</t>
+  </si>
+  <si>
+    <t>Demand [Mt]</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>For access points</t>
+  </si>
+  <si>
+    <t>2 to 3</t>
+  </si>
+  <si>
+    <t>4 to 5</t>
+  </si>
+  <si>
+    <t>5 to 6</t>
+  </si>
+  <si>
+    <t>7 to 8</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>6 to 7</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -246,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,22 +351,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -294,11 +383,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,12 +419,388 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1086,7 +1571,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1996,12 +2480,12 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6502A051-7FAB-4369-95AC-9D53D0E93C71}" name="Longitude"/>
     <tableColumn id="2" xr3:uid="{8693AFC1-1BB7-4FB2-AD51-054932991F9F}" name="Latitude"/>
-    <tableColumn id="3" xr3:uid="{17A6F2F4-B037-4E14-BF3D-A7764150E146}" name="Cost 2050 [€/kg]" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{17A6F2F4-B037-4E14-BF3D-A7764150E146}" name="Cost 2050 [€/kg]" dataDxfId="63"/>
     <tableColumn id="4" xr3:uid="{80AD4FE5-5641-45E5-BE71-309CD76210F1}" name="Total Cost [€]"/>
-    <tableColumn id="5" xr3:uid="{CC2F6353-2A68-413C-AC43-0181785B4A5A}" name="Total Cost [M€]" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{CC2F6353-2A68-413C-AC43-0181785B4A5A}" name="Total Cost [M€]" dataDxfId="62">
       <calculatedColumnFormula>D4/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{034F61CD-B958-4925-82AC-C6C1FACDB486}" name="LCOH [€/kg]" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{034F61CD-B958-4925-82AC-C6C1FACDB486}" name="LCOH [€/kg]" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2013,12 +2497,12 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{34483CE5-4617-49EA-8FC1-E9535CE8A73B}" name="Longitude"/>
     <tableColumn id="2" xr3:uid="{C78BB3ED-B979-45E0-A4C8-7BC35DC58B8D}" name="Latitude"/>
-    <tableColumn id="3" xr3:uid="{D5E66786-C207-415E-B78F-F06B8672A51D}" name="Cost 2050 [€/kg]" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CE162453-7F94-4FD5-90BB-981AEC14DC7D}" name="Total Cost [€]" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{295612CE-26FA-408B-A83D-B06FBC124E24}" name="Total Cost [M€]" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{D5E66786-C207-415E-B78F-F06B8672A51D}" name="Cost 2050 [€/kg]" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{CE162453-7F94-4FD5-90BB-981AEC14DC7D}" name="Total Cost [€]" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{295612CE-26FA-408B-A83D-B06FBC124E24}" name="Total Cost [M€]" dataDxfId="58">
       <calculatedColumnFormula>K4/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D3FB0B60-37A2-4FBD-8605-1158292CD654}" name="LCOH [€/kg]" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{D3FB0B60-37A2-4FBD-8605-1158292CD654}" name="LCOH [€/kg]" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2032,7 +2516,7 @@
     <tableColumn id="2" xr3:uid="{83CBD9BC-2045-4364-B17B-0D59E842F017}" name="Latitude"/>
     <tableColumn id="3" xr3:uid="{B5855523-134B-4543-89F6-C28F67EF6972}" name="Cost 2050 [€/kg]"/>
     <tableColumn id="4" xr3:uid="{F57CFD4F-2FFC-4023-94EA-A3ADE7DAD2A2}" name="Total Cost [€]"/>
-    <tableColumn id="5" xr3:uid="{A3CBBAE4-D211-47A5-86AD-24A586DF052C}" name="Total Cost [M€]" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{A3CBBAE4-D211-47A5-86AD-24A586DF052C}" name="Total Cost [M€]" dataDxfId="56">
       <calculatedColumnFormula>R4/1000000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{2FFA8F14-81B2-4549-AF22-39197AFDFE65}" name="LCOH [€/kg]"/>
@@ -2049,10 +2533,10 @@
     <tableColumn id="2" xr3:uid="{790B84D7-7689-42A6-B851-5AC69B7759F0}" name="Latitude"/>
     <tableColumn id="3" xr3:uid="{69540096-166F-484D-B595-82F2146BF8DF}" name="Cost 2050 [€/kg]"/>
     <tableColumn id="4" xr3:uid="{38183EA7-E959-41AD-A554-20417D137531}" name="Total Cost [€]"/>
-    <tableColumn id="5" xr3:uid="{4D0AA54A-E097-4968-B29D-326C8392A8D0}" name="Total Cost [M€]" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{4D0AA54A-E097-4968-B29D-326C8392A8D0}" name="Total Cost [M€]" dataDxfId="55">
       <calculatedColumnFormula>Y4/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5658966B-9849-4F70-929A-B37D6DB442CC}" name="LCOH [€/kg]" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{5658966B-9849-4F70-929A-B37D6DB442CC}" name="LCOH [€/kg]" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2391,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D259763F-C7DB-4E1E-BFAD-828F13B4DFFF}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="J23" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +3087,7 @@
         <v>7028671970.9148064</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E39" si="0">D5/1000000</f>
+        <f>D5/1000000</f>
         <v>7028.6719709148065</v>
       </c>
       <c r="F5" s="1">
@@ -2622,7 +3106,7 @@
         <v>8695471784.7779007</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L39" si="1">K5/1000000</f>
+        <f>K5/1000000</f>
         <v>8695.4717847779011</v>
       </c>
       <c r="M5" s="1">
@@ -2641,7 +3125,7 @@
         <v>6061420020.7502375</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:S39" si="2">R5/1000000</f>
+        <f>R5/1000000</f>
         <v>6061.4200207502372</v>
       </c>
       <c r="T5" s="1">
@@ -2660,7 +3144,7 @@
         <v>7705912881.4442062</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" ref="Z5:Z39" si="3">Y5/1000000</f>
+        <f>Y5/1000000</f>
         <v>7705.9128814442065</v>
       </c>
       <c r="AA5" s="1">
@@ -2681,7 +3165,7 @@
         <v>7017959805.8074656</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f>D6/1000000</f>
         <v>7017.9598058074653</v>
       </c>
       <c r="F6" s="1">
@@ -2700,7 +3184,7 @@
         <v>8669223768.5654659</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f>K6/1000000</f>
         <v>8669.2237685654654</v>
       </c>
       <c r="M6" s="1">
@@ -2719,7 +3203,7 @@
         <v>6013511526.0962448</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="2"/>
+        <f>R6/1000000</f>
         <v>6013.5115260962448</v>
       </c>
       <c r="T6" s="1">
@@ -2738,7 +3222,7 @@
         <v>7665420690.6570797</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="3"/>
+        <f>Y6/1000000</f>
         <v>7665.4206906570798</v>
       </c>
       <c r="AA6" s="1">
@@ -2759,7 +3243,7 @@
         <v>7317446172.9256258</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f>D7/1000000</f>
         <v>7317.4461729256254</v>
       </c>
       <c r="F7" s="1">
@@ -2778,7 +3262,7 @@
         <v>9055799611.72159</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="1"/>
+        <f>K7/1000000</f>
         <v>9055.7996117215898</v>
       </c>
       <c r="M7" s="1">
@@ -2797,7 +3281,7 @@
         <v>6276995897.5885029</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="2"/>
+        <f>R7/1000000</f>
         <v>6276.9958975885029</v>
       </c>
       <c r="T7" s="1">
@@ -2816,7 +3300,7 @@
         <v>7940194116.8476439</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="3"/>
+        <f>Y7/1000000</f>
         <v>7940.1941168476442</v>
       </c>
       <c r="AA7" s="1">
@@ -2837,7 +3321,7 @@
         <v>9413202101.4231644</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f>D8/1000000</f>
         <v>9413.202101423165</v>
       </c>
       <c r="F8" s="1">
@@ -2856,7 +3340,7 @@
         <v>11470773749.919842</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
+        <f>K8/1000000</f>
         <v>11470.773749919841</v>
       </c>
       <c r="M8" s="1">
@@ -2875,7 +3359,7 @@
         <v>8188093575.537302</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="2"/>
+        <f>R8/1000000</f>
         <v>8188.0935755373021</v>
       </c>
       <c r="T8" s="1">
@@ -2894,7 +3378,7 @@
         <v>10006560597.942167</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
+        <f>Y8/1000000</f>
         <v>10006.560597942167</v>
       </c>
       <c r="AA8" s="1">
@@ -2915,7 +3399,7 @@
         <v>9596971262.2108669</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f>D9/1000000</f>
         <v>9596.9712622108673</v>
       </c>
       <c r="F9" s="1">
@@ -2934,7 +3418,7 @@
         <v>11615325157.132883</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f>K9/1000000</f>
         <v>11615.325157132884</v>
       </c>
       <c r="M9" s="1">
@@ -2953,7 +3437,7 @@
         <v>8338662008.4735975</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="2"/>
+        <f>R9/1000000</f>
         <v>8338.6620084735969</v>
       </c>
       <c r="T9" s="1">
@@ -2972,7 +3456,7 @@
         <v>10199887662.483913</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
+        <f>Y9/1000000</f>
         <v>10199.887662483914</v>
       </c>
       <c r="AA9" s="1">
@@ -2993,7 +3477,7 @@
         <v>7195711119.5757685</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f>D10/1000000</f>
         <v>7195.7111195757689</v>
       </c>
       <c r="F10" s="1">
@@ -3012,7 +3496,7 @@
         <v>8893890122.4138756</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="1"/>
+        <f>K10/1000000</f>
         <v>8893.8901224138754</v>
       </c>
       <c r="M10" s="1">
@@ -3031,7 +3515,7 @@
         <v>6049877501.920187</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="2"/>
+        <f>R10/1000000</f>
         <v>6049.8775019201867</v>
       </c>
       <c r="T10" s="1">
@@ -3050,7 +3534,7 @@
         <v>7729402285.7858934</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
+        <f>Y10/1000000</f>
         <v>7729.4022857858936</v>
       </c>
       <c r="AA10" s="1">
@@ -3071,7 +3555,7 @@
         <v>7064654902.8601799</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f>D11/1000000</f>
         <v>7064.6549028601803</v>
       </c>
       <c r="F11" s="1">
@@ -3090,7 +3574,7 @@
         <v>8732347729.818449</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f>K11/1000000</f>
         <v>8732.3477298184498</v>
       </c>
       <c r="M11" s="1">
@@ -3109,7 +3593,7 @@
         <v>5861368430.9177666</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="2"/>
+        <f>R11/1000000</f>
         <v>5861.368430917767</v>
       </c>
       <c r="T11" s="1">
@@ -3128,7 +3612,7 @@
         <v>7557042545.8247519</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="3"/>
+        <f>Y11/1000000</f>
         <v>7557.0425458247519</v>
       </c>
       <c r="AA11" s="1">
@@ -3149,7 +3633,7 @@
         <v>6927584880.3317785</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f>D12/1000000</f>
         <v>6927.5848803317785</v>
       </c>
       <c r="F12" s="1">
@@ -3168,7 +3652,7 @@
         <v>8559342139.8341589</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
+        <f>K12/1000000</f>
         <v>8559.3421398341598</v>
       </c>
       <c r="M12" s="1">
@@ -3187,7 +3671,7 @@
         <v>5680151452.4955215</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
+        <f>R12/1000000</f>
         <v>5680.1514524955219</v>
       </c>
       <c r="T12" s="1">
@@ -3206,7 +3690,7 @@
         <v>7390895564.2138519</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="3"/>
+        <f>Y12/1000000</f>
         <v>7390.8955642138517</v>
       </c>
       <c r="AA12" s="1">
@@ -3227,7 +3711,7 @@
         <v>6767122385.6644716</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f>D13/1000000</f>
         <v>6767.1223856644719</v>
       </c>
       <c r="F13" s="1">
@@ -3246,7 +3730,7 @@
         <v>8339209495.3118963</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
+        <f>K13/1000000</f>
         <v>8339.2094953118958</v>
       </c>
       <c r="M13" s="1">
@@ -3265,7 +3749,7 @@
         <v>5486983009.4693346</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
+        <f>R13/1000000</f>
         <v>5486.9830094693343</v>
       </c>
       <c r="T13" s="1">
@@ -3284,7 +3768,7 @@
         <v>7190353617.4290552</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="3"/>
+        <f>Y13/1000000</f>
         <v>7190.3536174290548</v>
       </c>
       <c r="AA13" s="1">
@@ -3305,7 +3789,7 @@
         <v>6674116352.1737747</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f>D14/1000000</f>
         <v>6674.1163521737744</v>
       </c>
       <c r="F14" s="1">
@@ -3324,7 +3808,7 @@
         <v>8212824738.2310352</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
+        <f>K14/1000000</f>
         <v>8212.8247382310346</v>
       </c>
       <c r="M14" s="1">
@@ -3343,7 +3827,7 @@
         <v>5381388759.6938953</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="2"/>
+        <f>R14/1000000</f>
         <v>5381.3887596938957</v>
       </c>
       <c r="T14" s="1">
@@ -3362,7 +3846,7 @@
         <v>7090152940.4670353</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="3"/>
+        <f>Y14/1000000</f>
         <v>7090.1529404670355</v>
       </c>
       <c r="AA14" s="1">
@@ -3383,7 +3867,7 @@
         <v>6670910837.7547951</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f>D15/1000000</f>
         <v>6670.9108377547955</v>
       </c>
       <c r="F15" s="1">
@@ -3403,7 +3887,7 @@
         <v>8209724014.8538666</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="1"/>
+        <f>K15/1000000</f>
         <v>8209.7240148538658</v>
       </c>
       <c r="M15" s="1">
@@ -3422,7 +3906,7 @@
         <v>5390477488.1584272</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="2"/>
+        <f>R15/1000000</f>
         <v>5390.4774881584271</v>
       </c>
       <c r="T15" s="1">
@@ -3441,7 +3925,7 @@
         <v>7095223453.4559116</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="3"/>
+        <f>Y15/1000000</f>
         <v>7095.223453455912</v>
       </c>
       <c r="AA15" s="1">
@@ -3462,7 +3946,7 @@
         <v>7171396435.2958469</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f>D16/1000000</f>
         <v>7171.3964352958474</v>
       </c>
       <c r="F16" s="1">
@@ -3482,7 +3966,7 @@
         <v>8863564114.9500237</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
+        <f>K16/1000000</f>
         <v>8863.5641149500243</v>
       </c>
       <c r="M16" s="1">
@@ -3501,7 +3985,7 @@
         <v>5825136864.4712305</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="2"/>
+        <f>R16/1000000</f>
         <v>5825.1368644712302</v>
       </c>
       <c r="T16" s="1">
@@ -3520,7 +4004,7 @@
         <v>7553603501.5666199</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="3"/>
+        <f>Y16/1000000</f>
         <v>7553.6035015666203</v>
       </c>
       <c r="AA16" s="1">
@@ -3541,7 +4025,7 @@
         <v>7131867264.3542957</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f>D17/1000000</f>
         <v>7131.8672643542959</v>
       </c>
       <c r="F17" s="1">
@@ -3561,7 +4045,7 @@
         <v>8818826679.7819023</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="1"/>
+        <f>K17/1000000</f>
         <v>8818.8266797819015</v>
       </c>
       <c r="M17" s="1">
@@ -3580,7 +4064,7 @@
         <v>5700290527.3486338</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="2"/>
+        <f>R17/1000000</f>
         <v>5700.290527348634</v>
       </c>
       <c r="T17" s="1">
@@ -3599,7 +4083,7 @@
         <v>7448549461.2605963</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="3"/>
+        <f>Y17/1000000</f>
         <v>7448.5494612605962</v>
       </c>
       <c r="AA17" s="1">
@@ -3620,7 +4104,7 @@
         <v>7016753516.0628433</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f>D18/1000000</f>
         <v>7016.7535160628431</v>
       </c>
       <c r="F18" s="1">
@@ -3640,7 +4124,7 @@
         <v>8673538687.3365993</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f>K18/1000000</f>
         <v>8673.5386873365987</v>
       </c>
       <c r="M18" s="1">
@@ -3659,7 +4143,7 @@
         <v>5531626463.0911512</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="2"/>
+        <f>R18/1000000</f>
         <v>5531.626463091151</v>
       </c>
       <c r="T18" s="1">
@@ -3678,7 +4162,7 @@
         <v>7291882688.8388643</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="3"/>
+        <f>Y18/1000000</f>
         <v>7291.8826888388639</v>
       </c>
       <c r="AA18" s="1">
@@ -3699,7 +4183,7 @@
         <v>6948097639.6808615</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f>D19/1000000</f>
         <v>6948.0976396808619</v>
       </c>
       <c r="F19" s="1">
@@ -3719,7 +4203,7 @@
         <v>8570948074.6240835</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
+        <f>K19/1000000</f>
         <v>8570.9480746240843</v>
       </c>
       <c r="M19" s="1">
@@ -3738,7 +4222,7 @@
         <v>5410596568.0680599</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="2"/>
+        <f>R19/1000000</f>
         <v>5410.5965680680602</v>
       </c>
       <c r="T19" s="1">
@@ -3757,7 +4241,7 @@
         <v>7605238402.1680317</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="3"/>
+        <f>Y19/1000000</f>
         <v>7605.2384021680318</v>
       </c>
       <c r="AA19" s="1">
@@ -3778,7 +4262,7 @@
         <v>6920872052.2316914</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f>D20/1000000</f>
         <v>6920.8720522316917</v>
       </c>
       <c r="F20" s="1">
@@ -3798,7 +4282,7 @@
         <v>8540230394.3002634</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="1"/>
+        <f>K20/1000000</f>
         <v>8540.2303943002626</v>
       </c>
       <c r="M20" s="1">
@@ -3817,7 +4301,7 @@
         <v>5377377461.1031122</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="2"/>
+        <f>R20/1000000</f>
         <v>5377.3774611031122</v>
       </c>
       <c r="T20" s="1">
@@ -3836,7 +4320,7 @@
         <v>7144666908.3423872</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="3"/>
+        <f>Y20/1000000</f>
         <v>7144.6669083423876</v>
       </c>
       <c r="AA20" s="1">
@@ -3857,7 +4341,7 @@
         <v>6948530248.8703976</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f>D21/1000000</f>
         <v>6948.5302488703974</v>
       </c>
       <c r="F21" s="1">
@@ -3877,7 +4361,7 @@
         <v>8573615108.9854746</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
+        <f>K21/1000000</f>
         <v>8573.6151089854739</v>
       </c>
       <c r="M21" s="1">
@@ -3896,7 +4380,7 @@
         <v>5408869344.0366898</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="2"/>
+        <f>R21/1000000</f>
         <v>5408.8693440366897</v>
       </c>
       <c r="T21" s="1">
@@ -3915,7 +4399,7 @@
         <v>7173050166.7108335</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="3"/>
+        <f>Y21/1000000</f>
         <v>7173.0501667108338</v>
       </c>
       <c r="AA21" s="1">
@@ -3936,7 +4420,7 @@
         <v>7099715009.9394207</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f>D22/1000000</f>
         <v>7099.7150099394203</v>
       </c>
       <c r="F22" s="1">
@@ -3956,7 +4440,7 @@
         <v>8767253479.9922638</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
+        <f>K22/1000000</f>
         <v>8767.2534799922632</v>
       </c>
       <c r="M22" s="1">
@@ -3975,7 +4459,7 @@
         <v>5574088061.3805504</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="2"/>
+        <f>R22/1000000</f>
         <v>5574.0880613805502</v>
       </c>
       <c r="T22" s="1">
@@ -3994,7 +4478,7 @@
         <v>7345074926.9136772</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="3"/>
+        <f>Y22/1000000</f>
         <v>7345.0749269136768</v>
       </c>
       <c r="AA22" s="1">
@@ -4002,10 +4486,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>3.78</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>55.35</v>
       </c>
       <c r="C23" s="1">
@@ -4015,7 +4499,7 @@
         <v>7088852699.6127357</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f>D23/1000000</f>
         <v>7088.8526996127357</v>
       </c>
       <c r="F23" s="1">
@@ -4035,7 +4519,7 @@
         <v>8753463536.7315941</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="1"/>
+        <f>K23/1000000</f>
         <v>8753.4635367315932</v>
       </c>
       <c r="M23" s="1">
@@ -4054,7 +4538,7 @@
         <v>5460691452.3710613</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="2"/>
+        <f>R23/1000000</f>
         <v>5460.6914523710611</v>
       </c>
       <c r="T23" s="1">
@@ -4073,7 +4557,7 @@
         <v>7249734507.4784098</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="3"/>
+        <f>Y23/1000000</f>
         <v>7249.7345074784098</v>
       </c>
       <c r="AA23" s="1">
@@ -4094,7 +4578,7 @@
         <v>7036566410.3561821</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f>D24/1000000</f>
         <v>7036.5664103561821</v>
       </c>
       <c r="F24" s="1">
@@ -4114,7 +4598,7 @@
         <v>8686425269.4221745</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
+        <f>K24/1000000</f>
         <v>8686.4252694221741</v>
       </c>
       <c r="M24" s="1">
@@ -4133,7 +4617,7 @@
         <v>5312517769.5209484</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="2"/>
+        <f>R24/1000000</f>
         <v>5312.5177695209486</v>
       </c>
       <c r="T24" s="1">
@@ -4152,7 +4636,7 @@
         <v>7119591170.4094286</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="3"/>
+        <f>Y24/1000000</f>
         <v>7119.5911704094287</v>
       </c>
       <c r="AA24" s="1">
@@ -4173,7 +4657,7 @@
         <v>7011670014.6529913</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f>D25/1000000</f>
         <v>7011.6700146529911</v>
       </c>
       <c r="F25" s="1">
@@ -4193,7 +4677,7 @@
         <v>8660487313.9452057</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="1"/>
+        <f>K25/1000000</f>
         <v>8660.4873139452066</v>
       </c>
       <c r="M25" s="1">
@@ -4212,7 +4696,7 @@
         <v>5237949684.215539</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="2"/>
+        <f>R25/1000000</f>
         <v>5237.9496842155386</v>
       </c>
       <c r="T25" s="1">
@@ -4231,7 +4715,7 @@
         <v>7062061014.3081474</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="3"/>
+        <f>Y25/1000000</f>
         <v>7062.0610143081476</v>
       </c>
       <c r="AA25" s="1">
@@ -4252,7 +4736,7 @@
         <v>7011469562.9270992</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f>D26/1000000</f>
         <v>7011.4695629270991</v>
       </c>
       <c r="F26" s="1">
@@ -4272,7 +4756,7 @@
         <v>8662440397.7969723</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="1"/>
+        <f>K26/1000000</f>
         <v>8662.4403977969723</v>
       </c>
       <c r="M26" s="1">
@@ -4291,7 +4775,7 @@
         <v>5214485535.5728674</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="2"/>
+        <f>R26/1000000</f>
         <v>5214.4855355728678</v>
       </c>
       <c r="T26" s="1">
@@ -4310,7 +4794,7 @@
         <v>7043170059.2717142</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="3"/>
+        <f>Y26/1000000</f>
         <v>7043.1700592717143</v>
       </c>
       <c r="AA26" s="1">
@@ -4331,7 +4815,7 @@
         <v>7036336149.598197</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f>D27/1000000</f>
         <v>7036.3361495981972</v>
       </c>
       <c r="F27" s="1">
@@ -4351,7 +4835,7 @@
         <v>8685433270.1674252</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="1"/>
+        <f>K27/1000000</f>
         <v>8685.4332701674248</v>
       </c>
       <c r="M27" s="1">
@@ -4370,7 +4854,7 @@
         <v>5244971069.4591074</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="2"/>
+        <f>R27/1000000</f>
         <v>5244.9710694591076</v>
       </c>
       <c r="T27" s="1">
@@ -4389,7 +4873,7 @@
         <v>7066201791.6283932</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="3"/>
+        <f>Y27/1000000</f>
         <v>7066.201791628393</v>
       </c>
       <c r="AA27" s="1">
@@ -4397,10 +4881,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="10">
         <v>2.78</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <v>54.35</v>
       </c>
       <c r="C28" s="1">
@@ -4410,7 +4894,7 @@
         <v>7103357965.6399508</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f>D28/1000000</f>
         <v>7103.3579656399506</v>
       </c>
       <c r="F28" s="1">
@@ -4430,7 +4914,7 @@
         <v>8771831514.4620323</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="1"/>
+        <f>K28/1000000</f>
         <v>8771.8315144620319</v>
       </c>
       <c r="M28" s="1">
@@ -4449,7 +4933,7 @@
         <v>5457651623.8751125</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="2"/>
+        <f>R28/1000000</f>
         <v>5457.6516238751128</v>
       </c>
       <c r="T28" s="1">
@@ -4468,7 +4952,7 @@
         <v>7253484584.2063274</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="3"/>
+        <f>Y28/1000000</f>
         <v>7253.4845842063278</v>
       </c>
       <c r="AA28" s="1">
@@ -4476,10 +4960,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="10">
         <v>3.78</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <v>54.35</v>
       </c>
       <c r="C29" s="1">
@@ -4489,7 +4973,7 @@
         <v>7091603644.6335382</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f>D29/1000000</f>
         <v>7091.6036446335384</v>
       </c>
       <c r="F29" s="1">
@@ -4509,7 +4993,7 @@
         <v>8756091516.1936646</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="1"/>
+        <f>K29/1000000</f>
         <v>8756.0915161936646</v>
       </c>
       <c r="M29" s="1">
@@ -4528,7 +5012,7 @@
         <v>5310412282.8229294</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="2"/>
+        <f>R29/1000000</f>
         <v>5310.4122828229292</v>
       </c>
       <c r="T29" s="1">
@@ -4547,7 +5031,7 @@
         <v>7136009075.749732</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="3"/>
+        <f>Y29/1000000</f>
         <v>7136.0090757497319</v>
       </c>
       <c r="AA29" s="1">
@@ -4555,10 +5039,10 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="10">
         <v>4.78</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <v>54.35</v>
       </c>
       <c r="C30" s="1">
@@ -4568,7 +5052,7 @@
         <v>7060025691.3145981</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f>D30/1000000</f>
         <v>7060.0256913145977</v>
       </c>
       <c r="F30" s="1">
@@ -4588,7 +5072,7 @@
         <v>8717897808.2650032</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="1"/>
+        <f>K30/1000000</f>
         <v>8717.8978082650028</v>
       </c>
       <c r="M30" s="1">
@@ -4607,7 +5091,7 @@
         <v>5154462121.5836172</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="2"/>
+        <f>R30/1000000</f>
         <v>5154.4621215836169</v>
       </c>
       <c r="T30" s="1">
@@ -4626,7 +5110,7 @@
         <v>7002464823.273531</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="3"/>
+        <f>Y30/1000000</f>
         <v>7002.4648232735308</v>
       </c>
       <c r="AA30" s="1">
@@ -4647,7 +5131,7 @@
         <v>7036209692.0066309</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f>D31/1000000</f>
         <v>7036.2096920066306</v>
       </c>
       <c r="F31" s="1">
@@ -4666,7 +5150,7 @@
         <v>8691628814.1564388</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="1"/>
+        <f>K31/1000000</f>
         <v>8691.6288141564382</v>
       </c>
       <c r="M31" s="1">
@@ -4685,7 +5169,7 @@
         <v>5025888021.6315355</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="2"/>
+        <f>R31/1000000</f>
         <v>5025.8880216315356</v>
       </c>
       <c r="T31" s="1">
@@ -4704,7 +5188,7 @@
         <v>6898335911.8780403</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="3"/>
+        <f>Y31/1000000</f>
         <v>6898.33591187804</v>
       </c>
       <c r="AA31" s="1">
@@ -4725,7 +5209,7 @@
         <v>7031268113.078186</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f>D32/1000000</f>
         <v>7031.2681130781857</v>
       </c>
       <c r="F32" s="1">
@@ -4744,7 +5228,7 @@
         <v>8676726493.1272373</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="1"/>
+        <f>K32/1000000</f>
         <v>8676.7264931272366</v>
       </c>
       <c r="M32" s="1">
@@ -4763,7 +5247,7 @@
         <v>4966036641.4217758</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="2"/>
+        <f>R32/1000000</f>
         <v>4966.036641421776</v>
       </c>
       <c r="T32" s="1">
@@ -4782,7 +5266,7 @@
         <v>6847137720.6344681</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="3"/>
+        <f>Y32/1000000</f>
         <v>6847.1377206344678</v>
       </c>
       <c r="AA32" s="1">
@@ -4803,7 +5287,7 @@
         <v>7076787774.9441032</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f>D33/1000000</f>
         <v>7076.7877749441031</v>
       </c>
       <c r="F33" s="1">
@@ -4822,7 +5306,7 @@
         <v>8734518360.2080803</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="1"/>
+        <f>K33/1000000</f>
         <v>8734.5183602080797</v>
       </c>
       <c r="M33" s="1">
@@ -4841,7 +5325,7 @@
         <v>5051401627.0719919</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="2"/>
+        <f>R33/1000000</f>
         <v>5051.4016270719922</v>
       </c>
       <c r="T33" s="1">
@@ -4860,7 +5344,7 @@
         <v>6929921216.7217426</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="3"/>
+        <f>Y33/1000000</f>
         <v>6929.9212167217429</v>
       </c>
       <c r="AA33" s="1">
@@ -4881,7 +5365,7 @@
         <v>7080073903.3792362</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f>D34/1000000</f>
         <v>7080.0739033792361</v>
       </c>
       <c r="F34" s="1">
@@ -4900,7 +5384,7 @@
         <v>8743199713.074913</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="1"/>
+        <f>K34/1000000</f>
         <v>8743.1997130749132</v>
       </c>
       <c r="M34" s="1">
@@ -4919,7 +5403,7 @@
         <v>5403745797.8225241</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="2"/>
+        <f>R34/1000000</f>
         <v>5403.7457978225239</v>
       </c>
       <c r="T34" s="1">
@@ -4938,7 +5422,7 @@
         <v>7201969717.8100929</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="3"/>
+        <f>Y34/1000000</f>
         <v>7201.9697178100932</v>
       </c>
       <c r="AA34" s="1">
@@ -4946,10 +5430,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="10">
         <v>3.78</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <v>53.35</v>
       </c>
       <c r="C35" s="1">
@@ -4959,7 +5443,7 @@
         <v>7117705856.8893337</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f>D35/1000000</f>
         <v>7117.7058568893335</v>
       </c>
       <c r="F35" s="1">
@@ -4978,7 +5462,7 @@
         <v>8795305923.5033894</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="1"/>
+        <f>K35/1000000</f>
         <v>8795.3059235033888</v>
       </c>
       <c r="M35" s="1">
@@ -4997,7 +5481,7 @@
         <v>5288260171.8367615</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="2"/>
+        <f>R35/1000000</f>
         <v>5288.2601718367614</v>
       </c>
       <c r="T35" s="1">
@@ -5016,7 +5500,7 @@
         <v>7116654802.628026</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="3"/>
+        <f>Y35/1000000</f>
         <v>7116.6548026280261</v>
       </c>
       <c r="AA35" s="1">
@@ -5024,10 +5508,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="10">
         <v>4.78</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="10">
         <v>53.35</v>
       </c>
       <c r="C36" s="1">
@@ -5037,7 +5521,7 @@
         <v>7192276647.5726633</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f>D36/1000000</f>
         <v>7192.276647572663</v>
       </c>
       <c r="F36" s="1">
@@ -5056,7 +5540,7 @@
         <v>8891135731.3304806</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="1"/>
+        <f>K36/1000000</f>
         <v>8891.1357313304798</v>
       </c>
       <c r="M36" s="1">
@@ -5075,7 +5559,7 @@
         <v>5209078703.9155436</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="2"/>
+        <f>R36/1000000</f>
         <v>5209.0787039155439</v>
       </c>
       <c r="T36" s="1">
@@ -5094,7 +5578,7 @@
         <v>7084262990.8099308</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="3"/>
+        <f>Y36/1000000</f>
         <v>7084.2629908099307</v>
       </c>
       <c r="AA36" s="1">
@@ -5102,10 +5586,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="10">
         <v>5.78</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <v>53.35</v>
       </c>
       <c r="C37" s="1">
@@ -5115,7 +5599,7 @@
         <v>7717726602.2429905</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f>D37/1000000</f>
         <v>7717.7266022429903</v>
       </c>
       <c r="F37" s="1">
@@ -5134,7 +5618,7 @@
         <v>9529406537.9656982</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="1"/>
+        <f>K37/1000000</f>
         <v>9529.4065379656986</v>
       </c>
       <c r="M37" s="1">
@@ -5153,7 +5637,7 @@
         <v>5550442855.5107813</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="2"/>
+        <f>R37/1000000</f>
         <v>5550.4428555107816</v>
       </c>
       <c r="T37" s="1">
@@ -5172,7 +5656,7 @@
         <v>7475528111.2098722</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="3"/>
+        <f>Y37/1000000</f>
         <v>7475.5281112098719</v>
       </c>
       <c r="AA37" s="1">
@@ -5180,10 +5664,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="10">
         <v>6.78</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <v>53.35</v>
       </c>
       <c r="C38" s="1">
@@ -5193,7 +5677,7 @@
         <v>8314162829.4295826</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
+        <f>D38/1000000</f>
         <v>8314.1628294295824</v>
       </c>
       <c r="F38" s="1">
@@ -5212,7 +5696,7 @@
         <v>10188897571.831665</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="1"/>
+        <f>K38/1000000</f>
         <v>10188.897571831665</v>
       </c>
       <c r="M38" s="1">
@@ -5231,7 +5715,7 @@
         <v>5954049206.479743</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="2"/>
+        <f>R38/1000000</f>
         <v>5954.0492064797427</v>
       </c>
       <c r="T38" s="1">
@@ -5250,7 +5734,7 @@
         <v>7955280896.7272081</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="3"/>
+        <f>Y38/1000000</f>
         <v>7955.2808967272085</v>
       </c>
       <c r="AA38" s="1">
@@ -5271,7 +5755,7 @@
         <v>9279586501.1383572</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
+        <f>D39/1000000</f>
         <v>9279.5865011383576</v>
       </c>
       <c r="F39" s="1">
@@ -5290,7 +5774,7 @@
         <v>11233591966.43774</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="1"/>
+        <f>K39/1000000</f>
         <v>11233.59196643774</v>
       </c>
       <c r="M39" s="1">
@@ -5309,7 +5793,7 @@
         <v>6931013054.1380749</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="2"/>
+        <f>R39/1000000</f>
         <v>6931.0130541380749</v>
       </c>
       <c r="T39" s="1">
@@ -5328,7 +5812,7 @@
         <v>9013829139.1332455</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="3"/>
+        <f>Y39/1000000</f>
         <v>9013.8291391332459</v>
       </c>
       <c r="AA39" s="1">
@@ -5347,72 +5831,72 @@
         <v>4.4553309881404797</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45:AA45" si="4">MIN(D4:D39)</f>
+        <f>MIN(D4:D39)</f>
         <v>6670910837.7547951</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(E4:E39)</f>
         <v>6670.9108377547955</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(F4:F39)</f>
         <v>5.3353799357284268</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(J4:J39)</f>
         <v>4.9767184894815468</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(K4:K39)</f>
         <v>8209724014.8538666</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(L4:L39)</f>
         <v>8209.7240148538658</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(M4:M39)</f>
         <v>6.7212816832356115</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(Q4:Q39)</f>
         <v>3.198170029456616</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(R4:R39)</f>
         <v>4966036641.4217758</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(S4:S39)</f>
         <v>4966.036641421776</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(T4:T39)</f>
         <v>4.0515292564309906</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(X4:X39)</f>
         <v>4.5697640881725787</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(Y4:Y39)</f>
         <v>6847137720.6344681</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(Z4:Z39)</f>
         <v>6847.1377206344678</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="4"/>
+        <f>MIN(AA4:AA39)</f>
         <v>5.4845509531576999</v>
       </c>
     </row>
@@ -5425,63 +5909,63 @@
         <v>57.35</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:AA46" si="5">INDEX($B$4:$B$39,MATCH(D$45,D$4:D$39,0))</f>
+        <f>INDEX($B$4:$B$39,MATCH(D$45,D$4:D$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(E$45,E$4:E$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(F$45,F$4:F$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="J46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(J$45,J$4:J$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(K$45,K$4:K$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(L$45,L$4:L$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="M46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(M$45,M$4:M$39,0))</f>
         <v>57.35</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(Q$45,Q$4:Q$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="R46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(R$45,R$4:R$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="S46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(S$45,S$4:S$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="T46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(T$45,T$4:T$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="X46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(X$45,X$4:X$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(Y$45,Y$4:Y$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(Z$45,Z$4:Z$39,0))</f>
         <v>54.35</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="5"/>
+        <f>INDEX($B$4:$B$39,MATCH(AA$45,AA$4:AA$39,0))</f>
         <v>54.35</v>
       </c>
     </row>
@@ -5494,63 +5978,63 @@
         <v>7.78</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:AA47" si="6">INDEX($A$4:$A$39,MATCH(D$45,D$4:D$39,0))</f>
+        <f>INDEX($A$4:$A$39,MATCH(D$45,D$4:D$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(E$45,E$4:E$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(F$45,F$4:F$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="J47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(J$45,J$4:J$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(K$45,K$4:K$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="L47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(L$45,L$4:L$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(M$45,M$4:M$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(Q$45,Q$4:Q$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(R$45,R$4:R$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="S47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(S$45,S$4:S$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(T$45,T$4:T$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="X47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(X$45,X$4:X$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(Y$45,Y$4:Y$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(Z$45,Z$4:Z$39,0))</f>
         <v>6.78</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="6"/>
+        <f>INDEX($A$4:$A$39,MATCH(AA$45,AA$4:AA$39,0))</f>
         <v>6.78</v>
       </c>
     </row>
@@ -5563,15 +6047,15 @@
         <v>6.1830787444329882</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49:F49" si="7">MAX(D4:D39)</f>
+        <f>MAX(D4:D39)</f>
         <v>9596971262.2108669</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
+        <f>MAX(E4:E39)</f>
         <v>9596.9712622108673</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="7"/>
+        <f>MAX(F4:F39)</f>
         <v>7.7898731704766782</v>
       </c>
       <c r="J49" s="1">
@@ -5579,15 +6063,15 @@
         <v>6.9552807072961986</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" ref="K49:M49" si="8">MAX(K4:K39)</f>
+        <f>MAX(K4:K39)</f>
         <v>11615325157.132883</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(L4:L39)</f>
         <v>11615.325157132884</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(M4:M39)</f>
         <v>9.5849170376098716</v>
       </c>
       <c r="Q49" s="1">
@@ -5595,15 +6079,15 @@
         <v>5.3407668577968321</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49:T49" si="9">MAX(R4:R39)</f>
+        <f>MAX(R4:R39)</f>
         <v>8338662008.4735975</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="9"/>
+        <f>MAX(S4:S39)</f>
         <v>8338.6620084735969</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="9"/>
+        <f>MAX(T4:T39)</f>
         <v>6.7927810411676317</v>
       </c>
       <c r="X49" s="1">
@@ -5611,15 +6095,15 @@
         <v>6.6634995398987877</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" ref="Y49:AA49" si="10">MAX(Y4:Y39)</f>
+        <f>MAX(Y4:Y39)</f>
         <v>10199887662.483913</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="10"/>
+        <f>MAX(Z4:Z39)</f>
         <v>10199.887662483914</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="10"/>
+        <f>MAX(AA4:AA39)</f>
         <v>8.2296557432932893</v>
       </c>
     </row>
@@ -5632,15 +6116,15 @@
         <v>58.35</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:F50" si="11">INDEX($B$4:$B$39,MATCH(D$49,D$4:D$39,0))</f>
+        <f>INDEX($B$4:$B$39,MATCH(D$49,D$4:D$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="E50">
-        <f t="shared" si="11"/>
+        <f>INDEX($B$4:$B$39,MATCH(E$49,E$4:E$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="F50">
-        <f t="shared" si="11"/>
+        <f>INDEX($B$4:$B$39,MATCH(F$49,F$4:F$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="J50">
@@ -5648,15 +6132,15 @@
         <v>58.35</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50:M50" si="12">INDEX($B$4:$B$39,MATCH(K$49,K$4:K$39,0))</f>
+        <f>INDEX($B$4:$B$39,MATCH(K$49,K$4:K$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="L50">
-        <f t="shared" si="12"/>
+        <f>INDEX($B$4:$B$39,MATCH(L$49,L$4:L$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="M50">
-        <f t="shared" si="12"/>
+        <f>INDEX($B$4:$B$39,MATCH(M$49,M$4:M$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="Q50">
@@ -5664,15 +6148,15 @@
         <v>58.35</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:T50" si="13">INDEX($B$4:$B$39,MATCH(R$49,R$4:R$39,0))</f>
+        <f>INDEX($B$4:$B$39,MATCH(R$49,R$4:R$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="S50">
-        <f t="shared" si="13"/>
+        <f>INDEX($B$4:$B$39,MATCH(S$49,S$4:S$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="T50">
-        <f t="shared" si="13"/>
+        <f>INDEX($B$4:$B$39,MATCH(T$49,T$4:T$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="X50">
@@ -5680,15 +6164,15 @@
         <v>58.35</v>
       </c>
       <c r="Y50">
-        <f t="shared" ref="Y50:AA50" si="14">INDEX($B$4:$B$39,MATCH(Y$49,Y$4:Y$39,0))</f>
+        <f>INDEX($B$4:$B$39,MATCH(Y$49,Y$4:Y$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="14"/>
+        <f>INDEX($B$4:$B$39,MATCH(Z$49,Z$4:Z$39,0))</f>
         <v>58.35</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="14"/>
+        <f>INDEX($B$4:$B$39,MATCH(AA$49,AA$4:AA$39,0))</f>
         <v>58.35</v>
       </c>
     </row>
@@ -5701,15 +6185,15 @@
         <v>7.78</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:F51" si="15">INDEX($A$4:$A$39,MATCH(D$49,D$4:D$39,0))</f>
+        <f>INDEX($A$4:$A$39,MATCH(D$49,D$4:D$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="E51">
-        <f t="shared" si="15"/>
+        <f>INDEX($A$4:$A$39,MATCH(E$49,E$4:E$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="F51">
-        <f t="shared" si="15"/>
+        <f>INDEX($A$4:$A$39,MATCH(F$49,F$4:F$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="J51">
@@ -5717,15 +6201,15 @@
         <v>7.78</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:M51" si="16">INDEX($A$4:$A$39,MATCH(K$49,K$4:K$39,0))</f>
+        <f>INDEX($A$4:$A$39,MATCH(K$49,K$4:K$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="L51">
-        <f t="shared" si="16"/>
+        <f>INDEX($A$4:$A$39,MATCH(L$49,L$4:L$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="M51">
-        <f t="shared" si="16"/>
+        <f>INDEX($A$4:$A$39,MATCH(M$49,M$4:M$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="Q51">
@@ -5733,15 +6217,15 @@
         <v>7.78</v>
       </c>
       <c r="R51">
-        <f t="shared" ref="R51:T51" si="17">INDEX($A$4:$A$39,MATCH(R$49,R$4:R$39,0))</f>
+        <f>INDEX($A$4:$A$39,MATCH(R$49,R$4:R$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="S51">
-        <f t="shared" si="17"/>
+        <f>INDEX($A$4:$A$39,MATCH(S$49,S$4:S$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="T51">
-        <f t="shared" si="17"/>
+        <f>INDEX($A$4:$A$39,MATCH(T$49,T$4:T$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="X51">
@@ -5749,15 +6233,15 @@
         <v>7.78</v>
       </c>
       <c r="Y51">
-        <f t="shared" ref="Y51:AA51" si="18">INDEX($A$4:$A$39,MATCH(Y$49,Y$4:Y$39,0))</f>
+        <f>INDEX($A$4:$A$39,MATCH(Y$49,Y$4:Y$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="18"/>
+        <f>INDEX($A$4:$A$39,MATCH(Z$49,Z$4:Z$39,0))</f>
         <v>7.78</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="18"/>
+        <f>INDEX($A$4:$A$39,MATCH(AA$49,AA$4:AA$39,0))</f>
         <v>7.78</v>
       </c>
     </row>
@@ -5770,114 +6254,114 @@
         <v>1.7277477562925085</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" ref="D53:AA53" si="19">D49-D45</f>
+        <f>D49-D45</f>
         <v>2926060424.4560719</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="19"/>
+        <f>E49-E45</f>
         <v>2926.0604244560718</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="19"/>
+        <f>F49-F45</f>
         <v>2.4544932347482513</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f t="shared" si="19"/>
+        <f>J49-J45</f>
         <v>1.9785622178146518</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="19"/>
+        <f>K49-K45</f>
         <v>3405601142.2790165</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="19"/>
+        <f>L49-L45</f>
         <v>3405.6011422790179</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="19"/>
+        <f>M49-M45</f>
         <v>2.8636353543742601</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1">
-        <f t="shared" si="19"/>
+        <f>Q49-Q45</f>
         <v>2.1425968283402161</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="19"/>
+        <f>R49-R45</f>
         <v>3372625367.0518217</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="19"/>
+        <f>S49-S45</f>
         <v>3372.6253670518208</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="19"/>
+        <f>T49-T45</f>
         <v>2.7412517847366411</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1">
-        <f t="shared" si="19"/>
+        <f>X49-X45</f>
         <v>2.093735451726209</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="19"/>
+        <f>Y49-Y45</f>
         <v>3352749941.8494453</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="19"/>
+        <f>Z49-Z45</f>
         <v>3352.7499418494463</v>
       </c>
       <c r="AA53" s="1">
-        <f t="shared" si="19"/>
+        <f>AA49-AA45</f>
         <v>2.7451047901355894</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C47">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F51">
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E45">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F45">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:M45">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:M49">
+    <cfRule type="duplicateValues" dxfId="48" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:M51">
+    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:T45">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49:T49">
+    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50:T51">
+    <cfRule type="duplicateValues" dxfId="44" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:AA45">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F51">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:M49">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q49:T49">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X49:AA49">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:M51">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q50:T51">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X50:AA51">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">
@@ -5890,6 +6374,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F30B1-CEBE-4253-99CF-EB27291FA435}">
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3.78</v>
+      </c>
+      <c r="B5" s="11">
+        <v>55.35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.7184289862683819</v>
+      </c>
+      <c r="D5">
+        <v>7088852699.6127357</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5/1000000</f>
+        <v>7088.8526996127357</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.679387344392457</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <v>3.78</v>
+      </c>
+      <c r="I5">
+        <v>55.35</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.3060830834353183</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8753463536.7315941</v>
+      </c>
+      <c r="L5" s="2">
+        <f>K5/1000000</f>
+        <v>8753.4635367315932</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.1706560306876002</v>
+      </c>
+      <c r="O5">
+        <v>3.78</v>
+      </c>
+      <c r="P5">
+        <v>55.35</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.558853872869614</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5460691452.3710613</v>
+      </c>
+      <c r="S5" s="2">
+        <f>R5/1000000</f>
+        <v>5460.6914523710611</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.4266846354929541</v>
+      </c>
+      <c r="V5">
+        <v>3.78</v>
+      </c>
+      <c r="W5">
+        <v>55.35</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4.8609480184753044</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7249734507.4784098</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>Y5/1000000</f>
+        <v>7249.7345074784098</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5.7910889868059368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2.78</v>
+      </c>
+      <c r="B6" s="11">
+        <v>54.35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.7279687106846877</v>
+      </c>
+      <c r="D6">
+        <v>7103357965.6399508</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6/1000000</f>
+        <v>7103.3579656399506</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.6908554168025649</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6">
+        <v>2.78</v>
+      </c>
+      <c r="I6">
+        <v>54.35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.3167909728822096</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8771831514.4620323</v>
+      </c>
+      <c r="L6" s="2">
+        <f>K6/1000000</f>
+        <v>8771.8315144620319</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7.1859069152038142</v>
+      </c>
+      <c r="O6">
+        <v>2.78</v>
+      </c>
+      <c r="P6">
+        <v>54.35</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.5574732215773688</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5457651623.8751125</v>
+      </c>
+      <c r="S6" s="2">
+        <f>R6/1000000</f>
+        <v>5457.6516238751128</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.4244799545569684</v>
+      </c>
+      <c r="V6">
+        <v>2.78</v>
+      </c>
+      <c r="W6">
+        <v>54.35</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.8625049128540576</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>7253484584.2063274</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>Y6/1000000</f>
+        <v>7253.4845842063278</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5.795105671883535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3.78</v>
+      </c>
+      <c r="B7" s="11">
+        <v>54.35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.7214178020227253</v>
+      </c>
+      <c r="D7">
+        <v>7091603644.6335382</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7/1000000</f>
+        <v>7091.6036446335384</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.680769558479966</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7">
+        <v>3.78</v>
+      </c>
+      <c r="I7">
+        <v>54.35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.3089883247413736</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8756091516.1936646</v>
+      </c>
+      <c r="L7" s="2">
+        <f>K7/1000000</f>
+        <v>8756.0915161936646</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7.1722568086282319</v>
+      </c>
+      <c r="O7">
+        <v>3.78</v>
+      </c>
+      <c r="P7">
+        <v>54.35</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3.4465945898501271</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5310412282.8229294</v>
+      </c>
+      <c r="S7" s="2">
+        <f>R7/1000000</f>
+        <v>5310.4122828229292</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4.3139350246544153</v>
+      </c>
+      <c r="V7">
+        <v>3.78</v>
+      </c>
+      <c r="W7">
+        <v>54.35</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4.7757939440862476</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>7136009075.749732</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>Y7/1000000</f>
+        <v>7136.0090757497319</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5.7061376789999221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="B8" s="11">
+        <v>54.35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.7013931676275851</v>
+      </c>
+      <c r="D8">
+        <v>7060025691.3145981</v>
+      </c>
+      <c r="E8" s="2">
+        <f>D8/1000000</f>
+        <v>7060.0256913145977</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.6555855897190561</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8">
+        <v>4.78</v>
+      </c>
+      <c r="I8">
+        <v>54.35</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.2868341705078459</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8717897808.2650032</v>
+      </c>
+      <c r="L8" s="2">
+        <f>K8/1000000</f>
+        <v>8717.8978082650028</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.1405945380799718</v>
+      </c>
+      <c r="O8">
+        <v>4.78</v>
+      </c>
+      <c r="P8">
+        <v>54.35</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3.334433319456104</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5154462121.5836172</v>
+      </c>
+      <c r="S8" s="2">
+        <f>R8/1000000</f>
+        <v>5154.4621215836169</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4.195039309148048</v>
+      </c>
+      <c r="V8">
+        <v>4.78</v>
+      </c>
+      <c r="W8">
+        <v>54.35</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4.680914396377104</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>7002464823.273531</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>Y8/1000000</f>
+        <v>7002.4648232735308</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5.6035181240474943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>3.78</v>
+      </c>
+      <c r="B9" s="11">
+        <v>53.35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.737952215629031</v>
+      </c>
+      <c r="D9">
+        <v>7117705856.8893337</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9/1000000</f>
+        <v>7117.7058568893335</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.7029617350350899</v>
+      </c>
+      <c r="H9">
+        <v>3.78</v>
+      </c>
+      <c r="I9">
+        <v>53.35</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.3329125435716156</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8795305923.5033894</v>
+      </c>
+      <c r="L9" s="2">
+        <f>K9/1000000</f>
+        <v>8795.3059235033888</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7.2044505680925903</v>
+      </c>
+      <c r="O9">
+        <v>3.78</v>
+      </c>
+      <c r="P9">
+        <v>53.35</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.42925764141828</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5288260171.8367615</v>
+      </c>
+      <c r="S9" s="2">
+        <f>R9/1000000</f>
+        <v>5288.2601718367614</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4.2987756117235314</v>
+      </c>
+      <c r="V9">
+        <v>3.78</v>
+      </c>
+      <c r="W9">
+        <v>53.35</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4.7620250797553716</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7116654802.628026</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>Y9/1000000</f>
+        <v>7116.6548026280261</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5.6925469950798355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="B10" s="11">
+        <v>53.35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.7862718318296</v>
+      </c>
+      <c r="D10">
+        <v>7192276647.5726633</v>
+      </c>
+      <c r="E10" s="2">
+        <f>D10/1000000</f>
+        <v>7192.276647572663</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.763828488884875</v>
+      </c>
+      <c r="H10">
+        <v>4.78</v>
+      </c>
+      <c r="I10">
+        <v>53.35</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.3896388349722226</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8891135731.3304806</v>
+      </c>
+      <c r="L10" s="2">
+        <f>K10/1000000</f>
+        <v>8891.1357313304798</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7.2842254579107015</v>
+      </c>
+      <c r="O10">
+        <v>4.78</v>
+      </c>
+      <c r="P10">
+        <v>53.35</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.3625846786913418</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5209078703.9155436</v>
+      </c>
+      <c r="S10" s="2">
+        <f>R10/1000000</f>
+        <v>5209.0787039155439</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.244665751724912</v>
+      </c>
+      <c r="V10">
+        <v>4.78</v>
+      </c>
+      <c r="W10">
+        <v>53.35</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4.7245394887452914</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>7084262990.8099308</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>Y10/1000000</f>
+        <v>7084.2629908099307</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5.6756153674629308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="B11" s="11">
+        <v>53.35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1117064032305377</v>
+      </c>
+      <c r="D11">
+        <v>7717726602.2429905</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11/1000000</f>
+        <v>7717.7266022429903</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6.197322598022418</v>
+      </c>
+      <c r="H11">
+        <v>5.78</v>
+      </c>
+      <c r="I11">
+        <v>53.35</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.7565953757914894</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9529406537.9656982</v>
+      </c>
+      <c r="L11" s="2">
+        <f>K11/1000000</f>
+        <v>9529.4065379656986</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7.8190623399224144</v>
+      </c>
+      <c r="O11">
+        <v>5.78</v>
+      </c>
+      <c r="P11">
+        <v>53.35</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.545911088666776</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5550442855.5107813</v>
+      </c>
+      <c r="S11" s="2">
+        <f>R11/1000000</f>
+        <v>5550.4428555107816</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4.5386035877121653</v>
+      </c>
+      <c r="V11">
+        <v>5.78</v>
+      </c>
+      <c r="W11">
+        <v>53.35</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4.9555309864131871</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>7475528111.2098722</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>Y11/1000000</f>
+        <v>7475.5281112098719</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>6.006513268670953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="B12" s="11">
+        <v>53.35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.4512590665088014</v>
+      </c>
+      <c r="D12">
+        <v>8314162829.4295826</v>
+      </c>
+      <c r="E12" s="2">
+        <f>D12/1000000</f>
+        <v>8314.1628294295824</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.6979394836789634</v>
+      </c>
+      <c r="H12">
+        <v>6.78</v>
+      </c>
+      <c r="I12">
+        <v>53.35</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.1266923506310667</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10188897571.831665</v>
+      </c>
+      <c r="L12" s="2">
+        <f>K12/1000000</f>
+        <v>10188.897571831665</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8.3820361534857035</v>
+      </c>
+      <c r="O12">
+        <v>6.78</v>
+      </c>
+      <c r="P12">
+        <v>53.35</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3.7463970163993321</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5954049206.479743</v>
+      </c>
+      <c r="S12" s="2">
+        <f>R12/1000000</f>
+        <v>5954.0492064797427</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4.8945953076982116</v>
+      </c>
+      <c r="V12">
+        <v>6.78</v>
+      </c>
+      <c r="W12">
+        <v>53.35</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5.2124237214081797</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>7955280896.7272081</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>Y12/1000000</f>
+        <v>7955.2808967272085</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6.4177273260166698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <f>MIN(C5:C12)</f>
+        <v>4.7013931676275851</v>
+      </c>
+      <c r="D18" s="1">
+        <f>MIN(D5:D12)</f>
+        <v>7060025691.3145981</v>
+      </c>
+      <c r="E18" s="1">
+        <f>MIN(E5:E12)</f>
+        <v>7060.0256913145977</v>
+      </c>
+      <c r="F18" s="1">
+        <f>MIN(F5:F12)</f>
+        <v>5.6555855897190561</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="1">
+        <f>MIN(J5:J12)</f>
+        <v>5.2868341705078459</v>
+      </c>
+      <c r="K18" s="1">
+        <f>MIN(K5:K12)</f>
+        <v>8717897808.2650032</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(L5:L12)</f>
+        <v>8717.8978082650028</v>
+      </c>
+      <c r="M18" s="1">
+        <f>MIN(M5:M12)</f>
+        <v>7.1405945380799718</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>MIN(Q5:Q12)</f>
+        <v>3.334433319456104</v>
+      </c>
+      <c r="R18" s="1">
+        <f>MIN(R5:R12)</f>
+        <v>5154462121.5836172</v>
+      </c>
+      <c r="S18" s="1">
+        <f>MIN(S5:S12)</f>
+        <v>5154.4621215836169</v>
+      </c>
+      <c r="T18" s="1">
+        <f>MIN(T5:T12)</f>
+        <v>4.195039309148048</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="1">
+        <f>MIN(X5:X12)</f>
+        <v>4.680914396377104</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>MIN(Y5:Y12)</f>
+        <v>7002464823.273531</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>MIN(Z5:Z12)</f>
+        <v>7002.4648232735308</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>MIN(AA5:AA12)</f>
+        <v>5.6035181240474943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f>INDEX($B$5:$B$12,MATCH(C$18,C$5:C$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="D19">
+        <f>INDEX($B$5:$B$12,MATCH(D$18,D$5:D$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="E19">
+        <f>INDEX($B$5:$B$12,MATCH(E$18,E$5:E$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="F19">
+        <f>INDEX($B$5:$B$12,MATCH(F$18,F$5:F$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <f>INDEX($B$5:$B$12,MATCH(J$18,J$5:J$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="K19">
+        <f>INDEX($B$5:$B$12,MATCH(K$18,K$5:K$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="L19">
+        <f>INDEX($B$5:$B$12,MATCH(L$18,L$5:L$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="M19">
+        <f>INDEX($B$5:$B$12,MATCH(M$18,M$5:M$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <f>INDEX($B$5:$B$12,MATCH(Q$18,Q$5:Q$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="R19">
+        <f>INDEX($B$5:$B$12,MATCH(R$18,R$5:R$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="S19">
+        <f>INDEX($B$5:$B$12,MATCH(S$18,S$5:S$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="T19">
+        <f>INDEX($B$5:$B$12,MATCH(T$18,T$5:T$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="W19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <f>INDEX($B$5:$B$12,MATCH(X$18,X$5:X$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="Y19">
+        <f>INDEX($B$5:$B$12,MATCH(Y$18,Y$5:Y$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="Z19">
+        <f>INDEX($B$5:$B$12,MATCH(Z$18,Z$5:Z$12,0))</f>
+        <v>54.35</v>
+      </c>
+      <c r="AA19">
+        <f>INDEX($B$5:$B$12,MATCH(AA$18,AA$5:AA$12,0))</f>
+        <v>54.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>INDEX($A$5:$A$12,MATCH(C$18,C$5:C$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:F20" si="0">INDEX($A$5:$A$12,MATCH(D$18,D$5:D$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.78</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4.78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f>INDEX($A$5:$A$12,MATCH(J$18,J$5:J$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:M20" si="1">INDEX($A$5:$A$12,MATCH(K$18,K$5:K$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>4.78</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>4.78</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <f>INDEX($A$5:$A$12,MATCH(Q$18,Q$5:Q$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20:T20" si="2">INDEX($A$5:$A$12,MATCH(R$18,R$5:R$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>4.78</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>4.78</v>
+      </c>
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <f>INDEX($A$5:$A$12,MATCH(X$18,X$5:X$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:AA20" si="3">INDEX($A$5:$A$12,MATCH(Y$18,Y$5:Y$12,0))</f>
+        <v>4.78</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>4.78</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <f>MAX(C5:C12)</f>
+        <v>5.4512590665088014</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:F22" si="4">MAX(D5:D12)</f>
+        <v>8314162829.4295826</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>8314.1628294295824</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6979394836789634</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="1">
+        <f>MAX(J5:J12)</f>
+        <v>6.1266923506310667</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22:M22" si="5">MAX(K5:K12)</f>
+        <v>10188897571.831665</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="5"/>
+        <v>10188.897571831665</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="5"/>
+        <v>8.3820361534857035</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>MAX(Q5:Q12)</f>
+        <v>3.7463970163993321</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" ref="R22:T22" si="6">MAX(R5:R12)</f>
+        <v>5954049206.479743</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="6"/>
+        <v>5954.0492064797427</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8945953076982116</v>
+      </c>
+      <c r="W22" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="1">
+        <f>MAX(X5:X12)</f>
+        <v>5.2124237214081797</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" ref="Y22:AA22" si="7">MAX(Y5:Y12)</f>
+        <v>7955280896.7272081</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>7955.2808967272085</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="7"/>
+        <v>6.4177273260166698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f>INDEX($B$5:$B$12,MATCH(C$22,C$5:C$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:F23" si="8">INDEX($B$5:$B$12,MATCH(D$22,D$5:D$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>53.35</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>53.35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <f>INDEX($B$5:$B$12,MATCH(J$22,J$5:J$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:M23" si="9">INDEX($B$5:$B$12,MATCH(K$22,K$5:K$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>53.35</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>53.35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <f>INDEX($B$5:$B$12,MATCH(Q$22,Q$5:Q$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:T23" si="10">INDEX($B$5:$B$12,MATCH(R$22,R$5:R$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="10"/>
+        <v>53.35</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="10"/>
+        <v>53.35</v>
+      </c>
+      <c r="W23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <f>INDEX($B$5:$B$12,MATCH(X$22,X$5:X$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:AA23" si="11">INDEX($B$5:$B$12,MATCH(Y$22,Y$5:Y$12,0))</f>
+        <v>53.35</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="11"/>
+        <v>53.35</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="11"/>
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>INDEX($A$5:$A$12,MATCH(C$22,C$5:C$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:F24" si="12">INDEX($A$5:$A$12,MATCH(D$22,D$5:D$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="12"/>
+        <v>6.78</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="12"/>
+        <v>6.78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <f>INDEX($A$5:$A$12,MATCH(J$22,J$5:J$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:M24" si="13">INDEX($A$5:$A$12,MATCH(K$22,K$5:K$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="13"/>
+        <v>6.78</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="13"/>
+        <v>6.78</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <f>INDEX($A$5:$A$12,MATCH(Q$22,Q$5:Q$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24:T24" si="14">INDEX($A$5:$A$12,MATCH(R$22,R$5:R$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="14"/>
+        <v>6.78</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="14"/>
+        <v>6.78</v>
+      </c>
+      <c r="W24" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <f>INDEX($A$5:$A$12,MATCH(X$22,X$5:X$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:AA24" si="15">INDEX($A$5:$A$12,MATCH(Y$22,Y$5:Y$12,0))</f>
+        <v>6.78</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="15"/>
+        <v>6.78</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="15"/>
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C22-C18</f>
+        <v>0.74986589888121635</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D22-D18</f>
+        <v>1254137138.1149845</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E22-E18</f>
+        <v>1254.1371381149847</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F22-F18</f>
+        <v>1.0423538939599073</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="1">
+        <f>J22-J18</f>
+        <v>0.83985818012322078</v>
+      </c>
+      <c r="K26" s="1">
+        <f>K22-K18</f>
+        <v>1470999763.5666618</v>
+      </c>
+      <c r="L26" s="1">
+        <f>L22-L18</f>
+        <v>1470.9997635666623</v>
+      </c>
+      <c r="M26" s="1">
+        <f>M22-M18</f>
+        <v>1.2414416154057317</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>Q22-Q18</f>
+        <v>0.4119636969432281</v>
+      </c>
+      <c r="R26" s="1">
+        <f>R22-R18</f>
+        <v>799587084.89612579</v>
+      </c>
+      <c r="S26" s="1">
+        <f>S22-S18</f>
+        <v>799.58708489612582</v>
+      </c>
+      <c r="T26" s="1">
+        <f>T22-T18</f>
+        <v>0.69955599855016359</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" s="1">
+        <f>X22-X18</f>
+        <v>0.53150932503107562</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>Y22-Y18</f>
+        <v>952816073.45367718</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>Z22-Z18</f>
+        <v>952.81607345367775</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>AA22-AA18</f>
+        <v>0.81420920196917557</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:M5">
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:T5">
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:AA5">
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E8">
+    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:M8">
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:T8">
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:AA8">
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E12">
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:M12">
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:T12">
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:AA12">
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F20">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:F22">
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:F24">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:M20">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:M22">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:M24">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T20">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:T22">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23:T24">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18:AA20">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22:AA22">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:AA24">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB7DAB8-E97E-4999-85C8-F181CC27BF63}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6113,7 +7987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81755A1E-983F-4137-93AE-EE3C59D088D3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6200,15 +8074,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F71A253-85D6-40B9-BF53-192EBC8B4601}">
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
@@ -6223,7 +8100,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6272,16 +8149,19 @@
       <c r="G3" s="7">
         <v>5.4845509531576999</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="7">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12">
         <v>3</v>
       </c>
     </row>
@@ -6289,8 +8169,33 @@
       <c r="C4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -6300,16 +8205,31 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -6317,7 +8237,21 @@
         <v>55</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -6327,17 +8261,45 @@
         <v>51</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -6346,20 +8308,287 @@
       <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="D9">
+        <v>5.6555855897190561</v>
+      </c>
+      <c r="E9">
+        <v>7.1405945380799718</v>
+      </c>
+      <c r="F9">
+        <v>4.195039309148048</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.6035181240474943</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13">
+        <f>SUM(H3:H10)</f>
+        <v>15</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:K11" si="0">SUM(I3:I10)</f>
+        <v>31</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L11" s="13" cm="1">
+        <f t="array" ref="L11">_xlfn.MODE.MULT(L3:L10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14">
+        <v>2030</v>
+      </c>
+      <c r="F14">
+        <v>2040</v>
+      </c>
+      <c r="G14">
+        <v>2050</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>10500</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <f>D15+D15*0.1</f>
+        <v>11550</v>
+      </c>
+      <c r="F16">
+        <f>D15-D15*0.05</f>
+        <v>9975</v>
+      </c>
+      <c r="G16">
+        <f>D15-D15*0.1</f>
+        <v>9450</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <f>D15-D15*0.1</f>
+        <v>9450</v>
+      </c>
+      <c r="F17">
+        <f>D15-D15*0.45</f>
+        <v>5775</v>
+      </c>
+      <c r="G17">
+        <f>D15-D15*0.4</f>
+        <v>6300</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <f>D15*L29</f>
+        <v>315.10713642638495</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <f>E16*$L$29</f>
+        <v>346.6178500690234</v>
+      </c>
+      <c r="F20">
+        <f>F16*$L$29</f>
+        <v>299.3517796050657</v>
+      </c>
+      <c r="G20">
+        <f>G16*$L$29</f>
+        <v>283.59642278374645</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <f>E17*$L$29</f>
+        <v>283.59642278374645</v>
+      </c>
+      <c r="F21">
+        <f>F17*$L$29</f>
+        <v>173.3089250345117</v>
+      </c>
+      <c r="G21">
+        <f>G17*$L$29</f>
+        <v>189.06428185583096</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>150</v>
+      </c>
+      <c r="F23">
+        <v>215</v>
+      </c>
+      <c r="G23">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25">
+        <f>J24*10^12</f>
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26">
+        <f>J25/33322</f>
+        <v>300102034.69179523</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27">
+        <f>J26/1000000</f>
+        <v>300.10203469179521</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <f>J27/1000</f>
+        <v>0.30010203469179519</v>
+      </c>
+      <c r="K28">
+        <f>K24/33.322</f>
+        <v>0.30010203469179519</v>
+      </c>
+      <c r="L28">
+        <v>33.322000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f>1/L28</f>
+        <v>3.0010203469179517E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
@@ -6373,7 +8602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52E4CC1-8570-43CF-97BD-BEEEF9BDC14F}">
   <dimension ref="A1:L10"/>
   <sheetViews>
